--- a/data/trans_dic/P22$mutaSS-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P22$mutaSS-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,17 +725,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,92; 2,42</t>
+          <t>0,91; 2,48</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,21; 1,2</t>
+          <t>0,28; 1,3</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,41; 2,03</t>
+          <t>0,51; 2,14</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,42 +745,42 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,48; 3,15</t>
+          <t>1,46; 3,1</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,77; 1,98</t>
+          <t>0,7; 2,09</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,11; 1,04</t>
+          <t>0,11; 1,12</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,08; 0,69</t>
+          <t>0,05; 0,62</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,38; 2,52</t>
+          <t>1,38; 2,58</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,61; 1,47</t>
+          <t>0,62; 1,51</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,37; 1,25</t>
+          <t>0,4; 1,19</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,08; 0,53</t>
+          <t>0,09; 0,49</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,04; 3,66</t>
+          <t>1,99; 3,66</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,75; 3,16</t>
+          <t>1,79; 3,16</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,3; 2,48</t>
+          <t>1,28; 2,46</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,62; 3,26</t>
+          <t>1,57; 3,46</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,42; 4,27</t>
+          <t>2,44; 4,22</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,33; 2,67</t>
+          <t>1,33; 2,69</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,46; 1,32</t>
+          <t>0,45; 1,3</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,57; 1,25</t>
+          <t>0,55; 1,2</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,36; 3,62</t>
+          <t>2,44; 3,68</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,73; 2,69</t>
+          <t>1,68; 2,68</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>1,03; 1,75</t>
+          <t>1,01; 1,77</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,23; 2,19</t>
+          <t>1,22; 2,17</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,63; 12,85</t>
+          <t>7,72; 12,95</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,31; 10,71</t>
+          <t>5,23; 10,86</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,98; 7,86</t>
+          <t>3,91; 7,86</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,69; 7,23</t>
+          <t>3,72; 7,08</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,94; 9,85</t>
+          <t>4,67; 9,53</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,35; 8,17</t>
+          <t>3,15; 7,81</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,0; 6,95</t>
+          <t>3,17; 6,9</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,66; 7,53</t>
+          <t>4,59; 7,47</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>6,92; 10,47</t>
+          <t>6,91; 10,3</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>4,94; 8,34</t>
+          <t>4,92; 8,56</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>3,92; 6,62</t>
+          <t>3,91; 6,68</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>4,48; 6,73</t>
+          <t>4,52; 6,67</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,95; 4,27</t>
+          <t>2,97; 4,3</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,08; 3,23</t>
+          <t>2,16; 3,27</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,78; 2,89</t>
+          <t>1,78; 2,88</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,94; 3,27</t>
+          <t>2,05; 3,31</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,74; 3,99</t>
+          <t>2,79; 4,04</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,64; 2,64</t>
+          <t>1,65; 2,68</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,96; 1,74</t>
+          <t>0,92; 1,71</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,31; 2,04</t>
+          <t>1,28; 2,03</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,98; 3,93</t>
+          <t>3,01; 3,99</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>1,98; 2,76</t>
+          <t>2,0; 2,78</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1,49; 2,15</t>
+          <t>1,45; 2,14</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>1,77; 2,52</t>
+          <t>1,75; 2,53</t>
         </is>
       </c>
     </row>
@@ -1223,4 +1224,1003 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que, al menor, es beneficiaria de Mutualidad de Estado (Seguridad Social)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>15548</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>5849</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>8112</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>1104</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>28664</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>16486</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>4468</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>1850</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>44212</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>22335</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>12579</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>2954</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>9358; 25563</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>2778; 12709</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>3836; 16143</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 4344</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>19219; 40696</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>9325; 27952</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>1098; 11049</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>387; 4637</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>32266; 60536</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>14234; 34819</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>7014; 20684</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>1088; 6223</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>46553</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>47008</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>37915</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>56715</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>51574</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>33863</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>16200</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>19139</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>98127</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>80871</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>54115</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>75854</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>33662; 61809</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>35139; 61991</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>26448; 51073</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>35914; 79336</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>38748; 66905</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>23318; 47327</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>8982; 25870</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>12351; 26897</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>79912; 120425</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>62574; 99583</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>41058; 72038</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>55432; 98269</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>54991</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>37068</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>31215</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>33329</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>33234</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>23829</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>25276</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>39029</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>88225</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>60897</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>56492</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>72358</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>42584; 71435</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>25168; 52280</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>21356; 42921</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>24049; 45770</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>22259; 45425</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>14468; 35809</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>17396; 37903</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>30300; 49336</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>71014; 105887</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>46248; 80471</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>42782; 73201</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>59042; 87195</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>224</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>196</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>117093</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>89925</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>77242</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>91149</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>113471</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>74178</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>45944</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>60018</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>230564</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>164103</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>123186</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>151167</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>97240; 140671</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>73683; 111869</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>60001; 96994</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>70676; 114113</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>94062; 136296</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>58675; 95106</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>32403; 60429</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>46593; 74214</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>200172; 265303</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>139581; 193519</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>100213; 147395</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>124223; 180031</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>